--- a/biology/Biochimie/Fructose-1-phosphate/Fructose-1-phosphate.xlsx
+++ b/biology/Biochimie/Fructose-1-phosphate/Fructose-1-phosphate.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le fructose-1-phosphate est un dérivé phosphorylé du fructose. Il est produit essentiellement par la cétohexokinase, ou fructokinase hépatique, mais est également produit en plus petites quantités dans la muqueuse de l'intestin grêle et dans l'épithélium des néphrons. C'est un métabolite important de l'assimilation du fructose. La cétohexokinase ayant une vitesse maximum Vmax élevée, le fructose qui pénètre dans la cellule est rapidement phosphorylé en fructose-1-phosphate. Il s'accumule généralement sous cette forme dans le foie jusqu'à y être clivé par l'aldolase B, enzyme limitante du métabolisme du fructose :
